--- a/data/trans_bre/CONS_COR-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COR-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,86</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,5%</t>
+          <t>-73,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-48,62%</t>
+          <t>-57,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-70,82%</t>
+          <t>11,59%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,78</t>
+          <t>-10,01; -4,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -0,39</t>
+          <t>-5,92; -0,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -4,77</t>
+          <t>-1,38; 1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-61,7; 121,19</t>
+          <t>-84,67; -55,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-69,81; -5,62</t>
+          <t>-80,54; -18,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-81,49; -53,54</t>
+          <t>-60,39; 170,29</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-72,15%</t>
+          <t>-67,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-65,07%</t>
+          <t>-67,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-67,91%</t>
+          <t>-67,08%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -1,87</t>
+          <t>-9,42; -3,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -1,48</t>
+          <t>-6,05; -0,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,2; -3,63</t>
+          <t>-4,95; -0,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-89,69; -38,73</t>
+          <t>-81,39; -46,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,98; -34,79</t>
+          <t>-87,12; -22,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,5; -48,85</t>
+          <t>-87,83; -7,69</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-79,92%</t>
+          <t>-30,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>112,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,81%</t>
+          <t>-53,14%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -1,82</t>
+          <t>-7,23; 0,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 6,78</t>
+          <t>-1,41; 14,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; -0,04</t>
+          <t>-4,13; 2,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -27,8</t>
+          <t>-55,87; 7,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,98; 132,7</t>
+          <t>-25,14; 859,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 0,96</t>
+          <t>-100,0; 106,18</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-55,64%</t>
+          <t>-49,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-55,78%</t>
+          <t>-65,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-54,02%</t>
+          <t>-60,26%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,67; -1,59</t>
+          <t>-8,21; -2,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -2,43</t>
+          <t>-9,16; -2,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -3,97</t>
+          <t>-6,52; -1,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,09; -23,25</t>
+          <t>-64,88; -28,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,0; -37,22</t>
+          <t>-88,2; -41,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,19; -39,03</t>
+          <t>-78,03; -20,28</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>21,03%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 3,67</t>
+          <t>-1,77; 4,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,45</t>
+          <t>-2,33; 4,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,7</t>
+          <t>-2,33; 4,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-55,75; 101,99</t>
+          <t>-22,89; 103,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 76,5</t>
+          <t>-38,07; 163,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 79,59</t>
+          <t>-47,24; 159,38</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,38</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1139,71%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>602,43%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>799,71%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>985,98%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,84</t>
+          <t>6,89; 11,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,3; 9,25</t>
+          <t>3,68; 8,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,33</t>
+          <t>0,0; 26,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>292,86; 5532,79</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>31,94; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>132,96; 4530,79</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>347,64; 3468,45</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-46,65%</t>
+          <t>-37,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>-14,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-35,42%</t>
+          <t>-38,79%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -1,22</t>
+          <t>-4,71; -2,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,46</t>
+          <t>-2,28; 1,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; -2,25</t>
+          <t>-2,63; -0,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-61,74; -24,72</t>
+          <t>-46,67; -25,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 8,6</t>
+          <t>-38,27; 26,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-44,42; -25,53</t>
+          <t>-57,23; -12,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_COR-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COR-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-73,33%</t>
+          <t>-76,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -4,92</t>
+          <t>-8,95; -4,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -0,97</t>
+          <t>-5,33; -0,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-84,67; -55,64</t>
+          <t>-87,1; -63,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,54; -18,26</t>
+          <t>-79,82; -15,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-67,88%</t>
+          <t>-70,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -3,26</t>
+          <t>-9,27; -3,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,97</t>
+          <t>-6,04; -1,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-81,39; -46,2</t>
+          <t>-82,64; -48,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-87,12; -22,9</t>
+          <t>-86,84; -16,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-30,91%</t>
+          <t>-21,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 0,67</t>
+          <t>-5,8; 2,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 14,82</t>
+          <t>-1,26; 16,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-55,87; 7,42</t>
+          <t>-46,35; 21,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 859,87</t>
+          <t>-21,42; 1092,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-49,51%</t>
+          <t>-43,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -2,96</t>
+          <t>-7,21; -2,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -2,97</t>
+          <t>-8,23; -2,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,88; -28,93</t>
+          <t>-60,2; -22,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-88,2; -41,6</t>
+          <t>-88,4; -39,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,53</t>
+          <t>-1,76; 4,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 4,38</t>
+          <t>-2,8; 4,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 103,88</t>
+          <t>-24,79; 97,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,07; 163,56</t>
+          <t>-42,89; 164,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1139,71%</t>
+          <t>932,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,95</t>
+          <t>7,04; 12,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,8</t>
+          <t>3,56; 8,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>292,86; 5532,79</t>
+          <t>194,04; 5429,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,94; —</t>
+          <t>43,08; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-37,28%</t>
+          <t>-35,62%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; -2,23</t>
+          <t>-4,33; -2,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,25</t>
+          <t>-2,32; 1,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-46,67; -25,66</t>
+          <t>-45,26; -24,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-38,27; 26,64</t>
+          <t>-40,21; 25,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_COR-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COR-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-2,96</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-6,6</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-55,06%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-76,71%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-57,9%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11,59%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-5,23; -0,57</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 1,94</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-8,95; -4,66</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; -0,8</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,38; 1,94</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-76,53; -10,53</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-60,39; 170,29</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-87,1; -63,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-79,82; -15,12</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-60,39; 170,29</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-3,39</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-6,22</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,46</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,7</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-67,64%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-67,08%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-70,19%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-67,17%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-67,08%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-5,8; -1,16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; -0,66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-9,27; -3,54</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,04; -1,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,95; -0,66</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-87,3; -20,56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-87,83; -7,69</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-82,64; -48,69</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-86,84; -16,83</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-87,83; -7,69</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-2,47</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,68</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-53,14%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-21,62%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>112,93%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-53,14%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-4,46; 10,06</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 2,24</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-5,8; 2,13</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 16,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 2,24</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-46,33; 148,54</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 106,18</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-46,35; 21,89</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-21,42; 1092,19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 106,18</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-3,73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-3,81</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-4,51</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,15</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,81</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-50,56%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-60,26%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-43,82%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-65,8%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-60,26%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-6,02; -1,25</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-6,52; -1,28</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-7,21; -2,0</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,23; -2,51</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; -1,28</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-67,63; -18,04</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-78,03; -20,28</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-60,2; -22,57</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-88,4; -39,33</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-78,03; -20,28</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,25</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>79,45%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>21,98%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>36,19%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>21,03%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,01; 5,68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 4,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-1,76; 4,06</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; 4,18</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 4,36</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-3,75; 252,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-47,24; 159,38</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-24,79; 97,0</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-42,89; 164,18</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-47,24; 159,38</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>6,63</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>9,39</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,57</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>607,45%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>932,13%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>602,43%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>3,6; 8,84</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 26,27</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>7,04; 12,2</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,56; 8,72</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 26,27</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>52,96; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>194,04; 5429,87</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>43,08; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-3,12</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-11,14%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-38,79%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-35,62%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-14,7%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-38,79%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-1,73; 0,69</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; -0,47</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-4,33; -2,03</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 1,15</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; -0,47</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-27,65; 13,64</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-57,23; -12,19</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-45,26; -24,5</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-40,21; 25,89</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-57,23; -12,19</t>
         </is>
       </c>
     </row>
